--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/backdatedVinTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/backdatedVinTable_UT_SS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>VIN</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>BACKDATED2_SS_MAKE</t>
+  </si>
+  <si>
+    <t>UT_SS2</t>
+  </si>
+  <si>
+    <t>Gt2</t>
   </si>
 </sst>
 </file>
@@ -550,7 +556,7 @@
   <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,10 +826,10 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>28</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/backdatedVinTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/backdatedVinTable_UT_SS.xlsx
@@ -23,8 +23,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Petrenko, Viktor (C)</author>
+  </authors>
+  <commentList>
+    <comment ref="AA3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Petrenko, Viktor (C):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+User for MSRP PAS-730</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>VIN</t>
   </si>
@@ -197,26 +231,38 @@
     <t>BACKDATED_SS</t>
   </si>
   <si>
-    <t>BACKDATED2_SS</t>
-  </si>
-  <si>
     <t>BACKDATED_SS_MAKE</t>
   </si>
   <si>
-    <t>BACKDATED2_SS_MAKE</t>
-  </si>
-  <si>
-    <t>UT_SS2</t>
-  </si>
-  <si>
-    <t>Gt2</t>
+    <t>7MSRP15H&amp;V</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>GOLF</t>
+  </si>
+  <si>
+    <t>HATCHBACK 4 DOOR</t>
+  </si>
+  <si>
+    <t>8L V12</t>
+  </si>
+  <si>
+    <t>4WD</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +283,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -552,11 +611,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,13 +763,13 @@
         <v>56</v>
       </c>
       <c r="C2" s="3">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
@@ -814,49 +873,49 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3">
-        <v>2005</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="H3" s="3">
-        <v>53080</v>
+        <v>88888</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>50</v>
+      <c r="J3" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
+        <v>61</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="O3" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>31</v>
@@ -865,10 +924,10 @@
         <v>214</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="S3" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>33</v>
@@ -889,13 +948,13 @@
         <v>37</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="AA3" s="3">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AB3" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>55</v>
@@ -904,22 +963,22 @@
         <v>39</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AI3" s="3">
         <v>20000101</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AK3" s="3" t="s">
         <v>39</v>
@@ -931,5 +990,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/backdatedVinTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/backdatedVinTable_UT_SS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,31 +231,31 @@
     <t>BACKDATED_SS</t>
   </si>
   <si>
+    <t>7MSRP15H&amp;V</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>GOLF</t>
+  </si>
+  <si>
+    <t>HATCHBACK 4 DOOR</t>
+  </si>
+  <si>
+    <t>8L V12</t>
+  </si>
+  <si>
+    <t>4WD</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>BACKDATED_SS_MAKE</t>
-  </si>
-  <si>
-    <t>7MSRP15H&amp;V</t>
-  </si>
-  <si>
-    <t>VOLKSWAGEN</t>
-  </si>
-  <si>
-    <t>GOLF</t>
-  </si>
-  <si>
-    <t>HATCHBACK 4 DOOR</t>
-  </si>
-  <si>
-    <t>8L V12</t>
-  </si>
-  <si>
-    <t>4WD</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
 </sst>
 </file>
@@ -615,31 +615,31 @@
   <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="24.5546875" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" customWidth="1"/>
-    <col min="23" max="23" width="22.21875" customWidth="1"/>
-    <col min="24" max="24" width="20.88671875" customWidth="1"/>
-    <col min="25" max="25" width="34.77734375" customWidth="1"/>
-    <col min="26" max="26" width="5.88671875" customWidth="1"/>
-    <col min="27" max="27" width="16.21875" customWidth="1"/>
-    <col min="28" max="29" width="13.77734375" customWidth="1"/>
-    <col min="35" max="35" width="19.88671875" customWidth="1"/>
-    <col min="36" max="36" width="21.88671875" customWidth="1"/>
-    <col min="38" max="38" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" customWidth="1"/>
+    <col min="24" max="24" width="20.85546875" customWidth="1"/>
+    <col min="25" max="25" width="34.7109375" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" customWidth="1"/>
+    <col min="27" max="27" width="16.28515625" customWidth="1"/>
+    <col min="28" max="29" width="13.7109375" customWidth="1"/>
+    <col min="35" max="35" width="19.85546875" customWidth="1"/>
+    <col min="36" max="36" width="21.85546875" customWidth="1"/>
+    <col min="38" max="38" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +755,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -766,10 +766,10 @@
         <v>2015</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
@@ -871,9 +871,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>56</v>
@@ -882,16 +882,16 @@
         <v>2015</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="H3" s="3">
         <v>88888</v>
@@ -900,19 +900,19 @@
         <v>29</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O3" s="3">
         <v>12</v>
@@ -924,7 +924,7 @@
         <v>214</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S3" s="3">
         <v>4</v>
@@ -948,7 +948,7 @@
         <v>37</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA3" s="3">
         <v>35</v>
@@ -963,16 +963,16 @@
         <v>39</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AI3" s="3">
         <v>20000101</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/backdatedVinTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/backdatedVinTable_UT_SS.xlsx
@@ -615,7 +615,7 @@
   <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2:AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +768,7 @@
       <c r="D2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F2" t="s">

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/backdatedVinTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/backdatedVinTable_UT_SS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gw3eraj\projects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
     <author>Petrenko, Viktor (C)</author>
   </authors>
   <commentList>
-    <comment ref="AA3" authorId="0" shapeId="0">
+    <comment ref="Z3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>VIN</t>
   </si>
@@ -219,15 +219,6 @@
     <t>1FDEU15H&amp;K</t>
   </si>
   <si>
-    <t>STAT</t>
-  </si>
-  <si>
-    <t>CHOICE_TIER</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>BACKDATED_SS</t>
   </si>
   <si>
@@ -250,9 +241,6 @@
   </si>
   <si>
     <t>4WD</t>
-  </si>
-  <si>
-    <t>RT</t>
   </si>
   <si>
     <t>X</t>
@@ -612,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:AL3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,15 +619,14 @@
     <col min="23" max="23" width="22.21875" customWidth="1"/>
     <col min="24" max="24" width="20.88671875" customWidth="1"/>
     <col min="25" max="25" width="34.77734375" customWidth="1"/>
-    <col min="26" max="26" width="5.88671875" customWidth="1"/>
-    <col min="27" max="27" width="16.21875" customWidth="1"/>
-    <col min="28" max="29" width="13.77734375" customWidth="1"/>
-    <col min="35" max="35" width="19.88671875" customWidth="1"/>
-    <col min="36" max="36" width="21.88671875" customWidth="1"/>
-    <col min="38" max="38" width="20.88671875" customWidth="1"/>
+    <col min="26" max="26" width="16.21875" customWidth="1"/>
+    <col min="27" max="27" width="13.77734375" customWidth="1"/>
+    <col min="33" max="33" width="19.88671875" customWidth="1"/>
+    <col min="34" max="34" width="21.88671875" customWidth="1"/>
+    <col min="36" max="36" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,60 +703,54 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3">
         <v>2015</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
@@ -831,20 +812,20 @@
       <c r="Y2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>38</v>
+      <c r="Z2" s="3">
+        <v>42</v>
       </c>
       <c r="AA2" s="3">
         <v>42</v>
       </c>
-      <c r="AB2" s="3">
-        <v>42</v>
+      <c r="AB2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>38</v>
@@ -852,46 +833,40 @@
       <c r="AF2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="3" t="s">
-        <v>38</v>
+      <c r="AG2" s="3">
+        <v>20150101</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>20150101</v>
+        <v>39</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL2" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3">
         <v>2015</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H3" s="3">
         <v>88888</v>
@@ -900,19 +875,19 @@
         <v>29</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O3" s="3">
         <v>12</v>
@@ -924,7 +899,7 @@
         <v>214</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S3" s="3">
         <v>4</v>
@@ -947,43 +922,37 @@
       <c r="Y3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="3" t="s">
-        <v>64</v>
+      <c r="Z3" s="3">
+        <v>35</v>
       </c>
       <c r="AA3" s="3">
-        <v>35</v>
-      </c>
-      <c r="AB3" s="3">
         <v>44</v>
       </c>
+      <c r="AB3" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="AC3" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AD3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>20000101</v>
+      </c>
+      <c r="AH3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>20000101</v>
+      <c r="AI3" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL3" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -992,4 +961,34 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<WrappedLabelHistory xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory">
+  <Value>PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXMtYXNjaWkiPz48bGFiZWxIaXN0b3J5IHhtbG5zOnhzaT0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEtaW5zdGFuY2UiIHhtbG5zOnhzZD0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDE2LzAyL0NsYXNzaWZpZXIvaW50ZXJuYWwvbGFiZWxIaXN0b3J5Ij48aXRlbT48c2lzbCBzaXNsVmVyc2lvbj0iMCIgcG9saWN5PSJhZDU3ZDYxOC03ZWI5LTQ4MzYtOTY1OS05MmUxYzk3ZDViMmIiIG9yaWdpbj0idXNlclNlbGVjdGVkIj48ZWxlbWVudCB1aWQ9IjBkZjlhOWJkLWZlYjEtNGIwMS05MjIyLTRlMWUzMWIxNDk4NCIgdmFsdWU9IiIgeG1sbnM9Imh0dHA6Ly93d3cuYm9sZG9uamFtZXMuY29tLzIwMDgvMDEvc2llL2ludGVybmFsL2xhYmVsIiAvPjwvc2lzbD48VXNlck5hbWU+RU5UXGd3M2VyYWo8L1VzZXJOYW1lPjxEYXRlVGltZT4xLzMxLzIwMTkgMTA6MDk6NTMgUE08L0RhdGVUaW1lPjxMYWJlbFN0cmluZz5Db25maWRlbnRpYWw8L0xhYmVsU3RyaW5nPjwvaXRlbT48L2xhYmVsSGlzdG9yeT4=</Value>
+</WrappedLabelHistory>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="ad57d618-7eb9-4836-9659-92e1c97d5b2b" origin="userSelected">
+  <element uid="0df9a9bd-feb1-4b01-9222-4e1e31b14984" value=""/>
+</sisl>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8159D849-9E72-446D-9D67-97C4ADB537A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85AA8031-E981-43F4-808B-CA67EB44ABD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>